--- a/data/trans_bre/P25_12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>215,56%</t>
+          <t>101,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>450,59%</t>
+          <t>354,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>194,73%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 7,72</t>
+          <t>-6,2; 12,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 20,15</t>
+          <t>-0,0; 23,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 20,14</t>
+          <t>6,93; 28,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-1,32; 26,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 1248,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,55; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,15%</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>253,96%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 13,86</t>
+          <t>-11,58; 13,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,52</t>
+          <t>-10,78; 10,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,43</t>
+          <t>-9,47; 8,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 420,67</t>
+          <t>0,96; 25,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 276,18</t>
+          <t>-79,29; 446,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 564,9</t>
+          <t>-85,77; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 1868,23</t>
         </is>
       </c>
     </row>
@@ -764,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -774,22 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>263,54%</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>309,5%</t>
+          <t>1001,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>242,88%</t>
+          <t>301,69%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55,93%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 19,68</t>
+          <t>6,94; 22,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 25,95</t>
+          <t>7,37; 28,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 17,95</t>
+          <t>-2,67; 16,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1278,74</t>
+          <t>-8,29; 16,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,98; 1014,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,95; 993,17</t>
+          <t>38,08; 1353,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-30,11; 816,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-44,64; 380,95</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>276,55%</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>126,46%</t>
+          <t>285,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>124,05%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>102,18%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 21,1</t>
+          <t>5,72; 23,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 20,21</t>
+          <t>1,81; 22,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 16,17</t>
+          <t>-4,93; 17,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,33; 940,34</t>
+          <t>1,4; 24,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 344,8</t>
+          <t>46,05; 1545,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 182,15</t>
+          <t>5,82; 432,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; 198,32</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 371,23</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,25</t>
+          <t>19,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>193,3%</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>404,18%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>284,56%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78,4%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 22,85</t>
+          <t>-3,6; 20,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 30,44</t>
+          <t>6,81; 33,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 17,41</t>
+          <t>-1,84; 23,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,16; 549,58</t>
+          <t>-1,44; 29,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>128,74; 1503,42</t>
+          <t>-37,76; 362,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 272,9</t>
+          <t>41,89; 1175,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 372,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; 309,65</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>122,06%</t>
+          <t>-39,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>342,83%</t>
+          <t>250,66%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47,39%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-39,84%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 17,75</t>
+          <t>-17,79; 6,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 18,2</t>
+          <t>-0,28; 27,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 21,79</t>
+          <t>-8,65; 14,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 1060,79</t>
+          <t>-23,2; 10,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 1149,96</t>
+          <t>-100,0; 372,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,86; —</t>
+          <t>-60,24; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-91,1; 146,67</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>166,83%</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>185,2%</t>
+          <t>102,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>133,64%</t>
+          <t>194,51%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96,63%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>76,38%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,46</t>
+          <t>2,54; 11,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,76</t>
+          <t>8,2; 17,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,77</t>
+          <t>2,39; 11,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,39; 312,72</t>
+          <t>2,59; 13,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>101,45; 331,92</t>
+          <t>21,78; 228,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,35; 248,93</t>
+          <t>82,95; 396,83</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 215,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 163,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>101,73%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>354,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>194,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.139595735947807</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.48114735303322</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.02213199311429</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.68123727458065</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.106454536720606</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.27538566151647</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.526652444403469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 12,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 23,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,93; 28,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 26,76</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.669612714986182</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.045252001782323</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.078341071729216</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.221124961192946</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.3831014047601237</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.54195472568685</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.37843536404128</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.79336799341579</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.96812452061529</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,28%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>253,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 13,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,78; 10,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 8,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 25,44</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-79,29; 446,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-85,77; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,44; 1868,23</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.66758447723844</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.336807761746719</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.8347897745721228</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>11.33421441293557</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1373512045172043</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1677503126350502</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1425038545676482</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.149178584502256</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1001,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>301,69%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>131,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>55,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-20.40596580560737</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.60707486623076</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.40779745238444</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1173710347297101</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9157702120059834</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3431929611473624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 22,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 28,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 16,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 16,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>38,08; 1353,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-30,11; 816,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-44,64; 380,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.17706571003457</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.376563737013573</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.592889066771607</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.65494862008557</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.621271251747733</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.752693895164058</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>18.18487623228268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +813,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>14,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>285,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>124,05%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>44,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>102,18%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>15.10527458523878</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.27401561783896</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.390455888183375</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.08262117307599</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>12.02164234187331</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.776248732386513</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.322688761949602</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6877268365825606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 23,55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 22,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 17,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 24,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>46,05; 1545,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 432,99</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 198,32</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,64; 371,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.648379588916113</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.007436202586323</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.638624484339798</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.118912700711627</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>0.3047816373877014</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3142142187012035</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4216941013397906</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.48628852198336</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.28560515726504</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.00564734107159</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.49261707945364</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>12.79224738794018</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>8.319867449049317</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>4.486974182902183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>19,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,94</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>70,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>284,56%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>86,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>78,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 20,68</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 33,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 23,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 29,45</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,76; 362,53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>41,89; 1175,43</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,42; 372,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; 309,65</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>14.70101813180733</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.02617202587228</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.596825003501314</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.53987521472076</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.36423803467066</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.391481711613779</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.494057808108807</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.000100668614308</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-6,87</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-39,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>250,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>47,39%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-39,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.238454063929797</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.908561012558752</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.381056711924726</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.9182583238412251</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.6192645556989467</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.09688719451022862</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2599553284298917</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.03327156134842405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; 6,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 27,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; 14,05</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-23,2; 10,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 372,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-60,24; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-91,1; 146,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.72332814238418</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>23.53746983211393</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.58658459190275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>24.44589348321023</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>17.3892982857422</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.626317609832522</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.200406430141805</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.637247161965461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1009,291 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>102,26%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>194,51%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>96,63%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>76,38%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.608334464431059</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>20.06990024355182</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10.2778455658252</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>12.52111449674799</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.8014698644425966</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>2.968553619639496</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.906609694648812</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.8303808962161099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 11,04</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 17,16</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,48</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 13,56</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>21,78; 228,47</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>82,95; 396,83</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>21,2; 215,23</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,41; 163,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.862204139587854</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>7.309788188824166</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.667220524222515</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-1.075117481550561</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.3303905258050455</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.4756492255500461</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.1590188596423413</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.1051376281892786</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>21.00339120598666</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>34.95978860977269</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.52525486749758</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>30.017685159734</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.773127360126903</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>12.27584316246699</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>3.892851290959601</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>3.071914636324482</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-3.29202049113972</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>13.46295118602506</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.986758334566409</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-6.790416311978564</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.3361698732099213</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.76990318555504</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.3426176713637392</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.3864775860689579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-16.03573669876384</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3298820856504451</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-9.545884788192966</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-23.44233437633818</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.5414762673750765</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.9095551069622811</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>7.519408704607159</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>31.0230393815713</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.9459255988407</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>10.27891953894754</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>5.040260131443592</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>1.528728105228534</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>6.826194997163331</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>12.80539542584431</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>7.006944177192503</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8.586067445249503</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>1.02206914935413</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.859861828767738</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9513170842177101</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.8107616630038045</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.956514531585434</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>7.991370552558753</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.267189283135202</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>2.912689652901002</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.1304025648792172</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.7011429006174612</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.20506165804797</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.2346465951488806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.11803106000841</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>17.83203858567838</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>11.4052074162459</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>13.6681621151414</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.345530945876955</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>3.828227219625783</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.151120177585064</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.728847300782805</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1301,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
